--- a/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.414488939294559</v>
+        <v>2.497064501392834</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.928407322781459</v>
+        <v>2.933369053708256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5214081052644254</v>
+        <v>-0.04669754533323086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.116370848656233</v>
+        <v>2.441581409134105</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2099903549695175</v>
+        <v>0.229597752254734</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.235579856627242</v>
+        <v>0.2372533247689884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02869544447443617</v>
+        <v>-0.0007796210289620219</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06731145573351845</v>
+        <v>0.07351516726458911</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.867398946583879</v>
+        <v>8.113767017969995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.826340750388679</v>
+        <v>8.614642065059329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.637741080767175</v>
+        <v>7.502480673804731</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.29192954702063</v>
+        <v>11.20647053495874</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.924776755244021</v>
+        <v>0.9938567719782265</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9619508137547567</v>
+        <v>0.9542081204321468</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5031063090585356</v>
+        <v>0.5233449986248868</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4494276049354337</v>
+        <v>0.439810733885761</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.02901653298765933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.86707631329955</v>
+        <v>-4.867076313299552</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2639173613345431</v>
@@ -749,7 +749,7 @@
         <v>-0.002987274475890685</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2898260675098119</v>
+        <v>-0.2898260675098121</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.033513472793482</v>
+        <v>-3.126472843896916</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.980200928687994</v>
+        <v>-3.115945343722557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.887199752321576</v>
+        <v>-2.066761606431565</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.985545182806252</v>
+        <v>-6.951422931077592</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4758962085784824</v>
+        <v>-0.4920639664293763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4285170199363548</v>
+        <v>-0.4341151568994621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.180840659317679</v>
+        <v>-0.1913494920938613</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3791365873123587</v>
+        <v>-0.3874802250138221</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.04797642396925396</v>
+        <v>0.1294686706478637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1942820912936707</v>
+        <v>-0.1060076098692708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.842710724821275</v>
+        <v>1.96659914058946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.991181557545342</v>
+        <v>-2.865773498410839</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.002744544524483755</v>
+        <v>0.02806409702510661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03860711921342237</v>
+        <v>-0.01299544206013407</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2079817036802786</v>
+        <v>0.2156215068433846</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1891791832657182</v>
+        <v>-0.1856721218820475</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.943388527651171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.5017697498622548</v>
+        <v>-0.501769749862252</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1007544672663328</v>
@@ -849,7 +849,7 @@
         <v>-0.2786478980807515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03259430553207939</v>
+        <v>-0.03259430553207922</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.600353430190058</v>
+        <v>-4.509224996179947</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.221272535940926</v>
+        <v>-5.284535545129495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.278201080010016</v>
+        <v>-9.356261486862449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.632475154231637</v>
+        <v>-4.24666878915117</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4422353533317789</v>
+        <v>-0.4380524864646131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3737986617434845</v>
+        <v>-0.3778140087806942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4590525791836397</v>
+        <v>-0.4704796915400996</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2553440319317412</v>
+        <v>-0.240240008184036</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.593874842292155</v>
+        <v>2.423492308688292</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.337420107455733</v>
+        <v>3.696961337715234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06446237569209717</v>
+        <v>-0.5321858381420015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.944818060604664</v>
+        <v>3.279133012297214</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3858751387898059</v>
+        <v>0.3629090204437015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3386526546458838</v>
+        <v>0.3667751974374108</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03252067448290957</v>
+        <v>-0.03603755448617107</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2245570548855753</v>
+        <v>0.2601529379510338</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2234740495155257</v>
+        <v>0.09027313245179173</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01501304881695333</v>
+        <v>0.2542863841348739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9603101735624975</v>
+        <v>-1.068353219728617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.480084569181558</v>
+        <v>-2.635197630933118</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0287499558705391</v>
+        <v>0.01049274760423651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005101544870707083</v>
+        <v>0.02830932179203068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07331391963906361</v>
+        <v>-0.0812166592271881</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1271309390453719</v>
+        <v>-0.133190690435008</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.889445683929228</v>
+        <v>2.857894338493321</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.791071325476978</v>
+        <v>3.159515976589328</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.401070297516497</v>
+        <v>2.180124705471768</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9411913791960639</v>
+        <v>0.7812226535763339</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4376227047227954</v>
+        <v>0.4188376570583858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3754379420011372</v>
+        <v>0.4223023954621168</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2110105770385212</v>
+        <v>0.1842591909663954</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05624401226199138</v>
+        <v>0.04447432950891849</v>
       </c>
     </row>
     <row r="16">
